--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_460__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_460__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,13 +6118,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>11.40187740325928</c:v>
+                  <c:v>11.40186882019043</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>92.99025726318359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.03811645507812</c:v>
+                  <c:v>24.03808784484863</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-3.724920749664307</c:v>
@@ -6133,40 +6133,40 @@
                   <c:v>96.6832275390625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.84667205810547</c:v>
+                  <c:v>69.84668731689453</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>99.53437042236328</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.8982482552528381</c:v>
+                  <c:v>-0.8982424139976501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.997698307037354</c:v>
+                  <c:v>5.997689723968506</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59.86517715454102</c:v>
+                  <c:v>59.86518096923828</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.035987854003906</c:v>
+                  <c:v>-2.03600549697876</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.55183410644531</c:v>
+                  <c:v>96.55182647705078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.3610331416130066</c:v>
+                  <c:v>-0.3610301911830902</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>96.26107025146484</c:v>
+                  <c:v>96.26106262207031</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.257217764854431</c:v>
+                  <c:v>1.257211923599243</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.40773391723633</c:v>
+                  <c:v>55.40774154663086</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.3123193979263306</c:v>
+                  <c:v>-0.3123135268688202</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>95.75885772705078</c:v>
@@ -6181,10 +6181,10 @@
                   <c:v>95.15824890136719</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>99.84489440917969</c:v>
+                  <c:v>99.84490966796875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>94.96905517578125</c:v>
+                  <c:v>94.96906280517578</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>94.39053344726562</c:v>
@@ -6199,19 +6199,19 @@
                   <c:v>86.02114105224609</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63.01210021972656</c:v>
+                  <c:v>63.01209259033203</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6.072425842285156</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.388440132141113</c:v>
+                  <c:v>4.388434410095215</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>64.61331939697266</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.296059966087341</c:v>
+                  <c:v>1.296051144599915</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.582859873771667</c:v>
@@ -6223,13 +6223,13 @@
                   <c:v>2.113234281539917</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>99.22200775146484</c:v>
+                  <c:v>99.22202301025391</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.78433418273926</c:v>
+                  <c:v>29.78435897827148</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.279930114746094</c:v>
+                  <c:v>5.279935836791992</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1.487987041473389</c:v>
@@ -6244,82 +6244,82 @@
                   <c:v>93.59793853759766</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.490923881530762</c:v>
+                  <c:v>4.490921020507812</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35.79550933837891</c:v>
+                  <c:v>35.7955207824707</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>6.362547397613525</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.194940328598022</c:v>
+                  <c:v>2.194934368133545</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1.119578123092651</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>99.05646514892578</c:v>
+                  <c:v>99.05648040771484</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10.33171844482422</c:v>
+                  <c:v>10.33171272277832</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>99.14901733398438</c:v>
+                  <c:v>99.14903259277344</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17.49116325378418</c:v>
+                  <c:v>17.49113273620605</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>95.23503875732422</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>88.55381774902344</c:v>
+                  <c:v>88.55382537841797</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.231651306152344</c:v>
+                  <c:v>2.231657028198242</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>57.14402008056641</c:v>
+                  <c:v>57.14401626586914</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>38.72327041625977</c:v>
+                  <c:v>38.72328948974609</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>88.49691009521484</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.444329500198364</c:v>
+                  <c:v>1.444326639175415</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>64.87428283691406</c:v>
+                  <c:v>64.87427520751953</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>77.01226806640625</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.581654787063599</c:v>
+                  <c:v>3.581657648086548</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.051000833511353</c:v>
+                  <c:v>1.050994992256165</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>96.52841949462891</c:v>
+                  <c:v>96.52841186523438</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.5807432532310486</c:v>
+                  <c:v>0.5807373523712158</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>89.50510406494141</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.725970268249512</c:v>
+                  <c:v>2.725964307785034</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.13455593585968</c:v>
+                  <c:v>1.134558796882629</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>11.90612983703613</c:v>
+                  <c:v>11.90615653991699</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>70.99281311035156</c:v>
@@ -6337,13 +6337,13 @@
                   <c:v>95.53694152832031</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.011097431182861</c:v>
+                  <c:v>4.011094570159912</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>94.77023315429688</c:v>
+                  <c:v>94.77024841308594</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.2116288691759109</c:v>
+                  <c:v>0.2116200476884842</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>99.11759185791016</c:v>
@@ -6352,13 +6352,13 @@
                   <c:v>97.87884521484375</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>96.19674682617188</c:v>
+                  <c:v>96.19675445556641</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>98.94249725341797</c:v>
+                  <c:v>98.94247436523438</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>60.40729904174805</c:v>
+                  <c:v>60.40731048583984</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>1.584958791732788</c:v>
@@ -6373,7 +6373,7 @@
                   <c:v>94.85565185546875</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>92.809326171875</c:v>
+                  <c:v>92.80931854248047</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2.051680088043213</c:v>
@@ -6382,49 +6382,49 @@
                   <c:v>3.17263388633728</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.939454078674316</c:v>
+                  <c:v>1.939448237419128</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>94.07110595703125</c:v>
+                  <c:v>94.07111358642578</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>97.35778045654297</c:v>
+                  <c:v>97.35779571533203</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>5.497941017150879</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>45.57997894287109</c:v>
+                  <c:v>45.57998657226562</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>94.80134582519531</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>38.80022811889648</c:v>
+                  <c:v>38.80021667480469</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.044877529144287</c:v>
+                  <c:v>3.044880390167236</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>92.35497283935547</c:v>
+                  <c:v>92.35496520996094</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>98.07778930664062</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.039603710174561</c:v>
+                  <c:v>5.039612770080566</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>92.35438537597656</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.741635918617249</c:v>
+                  <c:v>1.741641759872437</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>4.313907146453857</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>84.77602386474609</c:v>
+                  <c:v>84.77601623535156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>11.40187740325928</v>
+        <v>11.40186882019043</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.03811645507812</v>
+        <v>24.03808784484863</v>
       </c>
       <c r="G4">
         <v>101</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>69.84667205810547</v>
+        <v>69.84668731689453</v>
       </c>
       <c r="G7">
         <v>101</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.8982482552528381</v>
+        <v>-0.8982424139976501</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>5.997698307037354</v>
+        <v>5.997689723968506</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>59.86517715454102</v>
+        <v>59.86518096923828</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>-2.035987854003906</v>
+        <v>-2.03600549697876</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>84.36620000000001</v>
       </c>
       <c r="F13">
-        <v>96.55183410644531</v>
+        <v>96.55182647705078</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.3610331416130066</v>
+        <v>-0.3610301911830902</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>93.33920000000001</v>
       </c>
       <c r="F15">
-        <v>96.26107025146484</v>
+        <v>96.26106262207031</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>1.257217764854431</v>
+        <v>1.257211923599243</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>26.9346</v>
       </c>
       <c r="F17">
-        <v>55.40773391723633</v>
+        <v>55.40774154663086</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-0.3123193979263306</v>
+        <v>-0.3123135268688202</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>98.18859999999999</v>
       </c>
       <c r="F23">
-        <v>99.84489440917969</v>
+        <v>99.84490966796875</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>93.3062</v>
       </c>
       <c r="F24">
-        <v>94.96905517578125</v>
+        <v>94.96906280517578</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5461</v>
       </c>
       <c r="F29">
-        <v>63.01210021972656</v>
+        <v>63.01209259033203</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>4.388440132141113</v>
+        <v>4.388434410095215</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.296059966087341</v>
+        <v>1.296051144599915</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>98.208</v>
       </c>
       <c r="F37">
-        <v>99.22200775146484</v>
+        <v>99.22202301025391</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>29.78433418273926</v>
+        <v>29.78435897827148</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>5.279930114746094</v>
+        <v>5.279935836791992</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>4.490923881530762</v>
+        <v>4.490921020507812</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>35.79550933837891</v>
+        <v>35.7955207824707</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>2.194940328598022</v>
+        <v>2.194934368133545</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>89.79689999999999</v>
       </c>
       <c r="F49">
-        <v>99.05646514892578</v>
+        <v>99.05648040771484</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>10.33171844482422</v>
+        <v>10.33171272277832</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>94.2983</v>
       </c>
       <c r="F51">
-        <v>99.14901733398438</v>
+        <v>99.14903259277344</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>17.49116325378418</v>
+        <v>17.49113273620605</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>97.72280000000001</v>
       </c>
       <c r="F54">
-        <v>88.55381774902344</v>
+        <v>88.55382537841797</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2.231651306152344</v>
+        <v>2.231657028198242</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>57.14402008056641</v>
+        <v>57.14401626586914</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>39.8962</v>
       </c>
       <c r="F57">
-        <v>38.72327041625977</v>
+        <v>38.72328948974609</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.444329500198364</v>
+        <v>1.444326639175415</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>64.87428283691406</v>
+        <v>64.87427520751953</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>3.581654787063599</v>
+        <v>3.581657648086548</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.051000833511353</v>
+        <v>1.050994992256165</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>97.37220000000001</v>
       </c>
       <c r="F64">
-        <v>96.52841949462891</v>
+        <v>96.52841186523438</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>0.5807432532310486</v>
+        <v>0.5807373523712158</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>2.725970268249512</v>
+        <v>2.725964307785034</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.13455593585968</v>
+        <v>1.134558796882629</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>11.90612983703613</v>
+        <v>11.90615653991699</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>4.011097431182861</v>
+        <v>4.011094570159912</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>96.0843</v>
       </c>
       <c r="F76">
-        <v>94.77023315429688</v>
+        <v>94.77024841308594</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.2116288691759109</v>
+        <v>0.2116200476884842</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>96.19674682617188</v>
+        <v>96.19675445556641</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>98.0264</v>
       </c>
       <c r="F81">
-        <v>98.94249725341797</v>
+        <v>98.94247436523438</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>60.40729904174805</v>
+        <v>60.40731048583984</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>91.53700000000001</v>
       </c>
       <c r="F87">
-        <v>92.809326171875</v>
+        <v>92.80931854248047</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.939454078674316</v>
+        <v>1.939448237419128</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>91.271</v>
       </c>
       <c r="F91">
-        <v>94.07110595703125</v>
+        <v>94.07111358642578</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>95.6799</v>
       </c>
       <c r="F92">
-        <v>97.35778045654297</v>
+        <v>97.35779571533203</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>45.57997894287109</v>
+        <v>45.57998657226562</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>77.41670000000001</v>
       </c>
       <c r="F96">
-        <v>38.80022811889648</v>
+        <v>38.80021667480469</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3.044877529144287</v>
+        <v>3.044880390167236</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>91.6399</v>
       </c>
       <c r="F98">
-        <v>92.35497283935547</v>
+        <v>92.35496520996094</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>5.039603710174561</v>
+        <v>5.039612770080566</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.741635918617249</v>
+        <v>1.741641759872437</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>76.82470000000001</v>
       </c>
       <c r="F104">
-        <v>84.77602386474609</v>
+        <v>84.77601623535156</v>
       </c>
     </row>
     <row r="105" spans="1:6">
